--- a/regions/9/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/9/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -235,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,19 +531,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.85546875" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" customWidth="1"/>
     <col min="2" max="6" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
@@ -560,10 +562,12 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -580,7 +584,7 @@
       <c r="N2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="3"/>
       <c r="B3" s="10">
         <v>2006</v>
@@ -627,8 +631,14 @@
       <c r="P3" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="12">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -677,8 +687,14 @@
       <c r="P4" s="14">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="14">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="R4" s="14">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -727,8 +743,14 @@
       <c r="P5" s="13">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="13">
+        <v>76.8</v>
+      </c>
+      <c r="R5" s="13">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -777,8 +799,14 @@
       <c r="P6" s="15">
         <v>1024</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="15">
+        <v>1318</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1511.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -827,8 +855,14 @@
       <c r="P7" s="15">
         <v>1009</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="15">
+        <v>1309</v>
+      </c>
+      <c r="R7" s="15">
+        <v>1468.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -877,8 +911,14 @@
       <c r="P8" s="13">
         <v>1016</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="13">
+        <v>1237.2</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1495.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -927,8 +967,14 @@
       <c r="P9" s="13">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="13">
+        <v>45.8</v>
+      </c>
+      <c r="R9" s="13">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1023,14 @@
       <c r="P10" s="13">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R10" s="13">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1027,8 +1079,14 @@
       <c r="P11" s="13">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="13">
+        <v>30.9</v>
+      </c>
+      <c r="R11" s="13">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1077,8 +1135,14 @@
       <c r="P12" s="17">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="17">
+        <v>23.5</v>
+      </c>
+      <c r="R12" s="17">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1127,8 +1191,14 @@
       <c r="P13" s="13">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="25.5">
+      <c r="Q13" s="13">
+        <v>46.3</v>
+      </c>
+      <c r="R13" s="13">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="25.5">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1177,8 +1247,14 @@
       <c r="P14" s="19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1196,7 +1272,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1342,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/9/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/9/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,7 +545,7 @@
     <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1">
+    <row r="1" spans="1:19" ht="25.5" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
@@ -567,7 +567,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -584,7 +584,7 @@
       <c r="N2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="3"/>
       <c r="B3" s="10">
         <v>2006</v>
@@ -637,8 +637,11 @@
       <c r="R3" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="R4" s="14">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="14">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -749,8 +755,11 @@
       <c r="R5" s="13">
         <v>95.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="13">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -805,8 +814,11 @@
       <c r="R6" s="15">
         <v>1511.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="15">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -861,8 +873,11 @@
       <c r="R7" s="15">
         <v>1468.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="15">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -917,8 +932,11 @@
       <c r="R8" s="13">
         <v>1495.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="13">
+        <v>1496.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -973,8 +991,11 @@
       <c r="R9" s="13">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="13">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1050,11 @@
       <c r="R10" s="13">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="13">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1085,8 +1109,11 @@
       <c r="R11" s="13">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1141,8 +1168,11 @@
       <c r="R12" s="17">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="17">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1197,8 +1227,11 @@
       <c r="R13" s="13">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="25.5">
+      <c r="S13" s="13">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="25.5">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1253,8 +1286,11 @@
       <c r="R14" s="19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="19">
+        <v>0.15670000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1272,7 +1308,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
